--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_112.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_112.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06255060728744939</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D/7', 'A/3', 'B:min']]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(20.42, 25.9)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.062412, 12.567886)]</t>
+          <t>[('0:04:11.500000', '0:04:15.380000'), ('0:00:24.180000', '0:00:27.660000'), ('0:00:09.240000', '0:00:12.560000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:01:07.760000', '0:01:17.500000'), ('0:00:40.380000', '0:00:42.280000'), ('0:01:28.480000', '0:01:40.380000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['D:7', 'G:9', 'C:7']]</t>
-        </is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07777777777777778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['C:7', 'F:9', 'Bb:7']]</t>
+          <t>[['G', 'C', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72), (35.73, 39.69)]</t>
+          <t>[['A/3', 'D', 'F#', 'B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01), (17.33, 21.67)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:53.702517', '0:00:59.159206')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:45.772902', '0:00:52.634399')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_85</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07146401985111663</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:7/F', 'C:maj/E'], ['D:7', 'G:maj', 'D:7/C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab:7', 'Db'], ['Eb:7', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[('0:00:07.800000', '0:00:13.600000'), ('0:00:54.760000', '0:01:02.820000'), ('0:01:08.980000', '0:01:17.120000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:03.100000', '0:00:05.910000'), ('0:01:34.880000', '0:01:37.740000'), ('0:00:21.500000', '0:00:24.400000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_56</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05368916797488226</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:maj', 'Eb:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.64, 23.48)]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(217.911, 222.528)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:06.440000', '0:00:12.420000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:12.318208', '0:00:18.355396')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2767857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(24.52, 54.82)]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(121.74, 125.0)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1785714285714285</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.65</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Db', 'Db', 'Db:7', 'Gb']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(74.84, 89.52)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(22.947687, 31.49263)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_41</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03827433628318584</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3513071895424837</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.21, 14.45)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.646772, 12.917702)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(11.384, 18.318)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(118.4, 121.72)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2729885057471264</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['F:7', 'Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4807692307692308</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['E', 'A', 'E', 'B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(50.13, 55.78), (48.25, 53.91)]</t>
+          <t>[['B', 'E', 'B', 'F#', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(212.26, 222.96), (16.44, 37.94)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:11.192403', '0:01:27.736621')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:40.546893', '0:00:53.747437')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1643318965517241</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6', 'A/b6']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(86.64, 93.25)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(84.787426, 87.887535)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_27</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04219971570717839</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'C:min7', 'F:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_67</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_197</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8787878787878788</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'E:min7', 'A:7', 'D']]</t>
+          <t>[['G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.82, 10.04)]</t>
+          <t>[['E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(6.7, 11.89)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:31.957392', '0:02:08.958390')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:19.977483', '0:01:57.814762')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2490842490842491</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'Eb', 'E', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'A:maj', 'A#:maj', 'A:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(4.82, 6.84)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(56.42, 61.62)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'C', 'A:min'], ['A:min', 'D:min', 'A:min'], ['E', 'A:min', 'A:min'], ['A:min', 'E', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'D#/G', 'C:min/G'], ['C:min', 'F:min', 'C:min/G'], ['G', 'C:min', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.84, 26.811), (35.888, 38.359), (48.396, 52.899), (12.824, 20.865)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(60.78, 63.92), (9.72, 13.0), (15.18, 20.54), (14.08, 18.4)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(120.5, 149.88)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(143.5, 176.78)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_108</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09646739130434782</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.08, 43.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(19.000294, 29.309954)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
